--- a/biology/Médecine/CAMI_Sport_&_Cancer/CAMI_Sport_&_Cancer.xlsx
+++ b/biology/Médecine/CAMI_Sport_&_Cancer/CAMI_Sport_&_Cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CAMI_Sport_%26_Cancer</t>
+          <t>CAMI_Sport_&amp;_Cancer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">CAMI Sport &amp; Cancer (abréviation de cancer, art martiaux et information) est une association à but non lucratif française, reconnue d’intérêt général. Elle a été créée en 2000 pour promouvoir l'activité physique auprès des personnes atteintes d'un cancer.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAMI_Sport_%26_Cancer</t>
+          <t>CAMI_Sport_&amp;_Cancer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La CAMI Sport &amp; Cancer, association loi de 1901[3], est fondée au cours de l'année 2000, en France, par Dr Thierry Bouillet, cancérologue au sein du CHU Avicenne de Bobigny, et Jean-Marc Descotes, professeur de karaté, ancien sportif de haut niveau[1],[2]. L'abréviation « CAMI », pour « cancer, art martiaux et information »[4], est aussi une allusion aux divinités de la mythologie japonaise, appelées « kami »[3].
-En 2016, l'association, organisée en une fédération nationale[3], se compose de vingt-deux comités départemantaux[5]. Elle fête ses vingt ans en 2020[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La CAMI Sport &amp; Cancer, association loi de 1901, est fondée au cours de l'année 2000, en France, par Dr Thierry Bouillet, cancérologue au sein du CHU Avicenne de Bobigny, et Jean-Marc Descotes, professeur de karaté, ancien sportif de haut niveau,. L'abréviation « CAMI », pour « cancer, art martiaux et information », est aussi une allusion aux divinités de la mythologie japonaise, appelées « kami ».
+En 2016, l'association, organisée en une fédération nationale, se compose de vingt-deux comités départemantaux. Elle fête ses vingt ans en 2020.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAMI_Sport_%26_Cancer</t>
+          <t>CAMI_Sport_&amp;_Cancer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La CAMI Sport &amp; Cancer assiste des personnes atteintes d'un cancer, en leur proposant des activités sportives telles que la course à pied, le yoga, la natation et le karaté[1],[7]. Une activité physique régulière réduirait la fatigue induite par la maladie et les traitements médicamenteux[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La CAMI Sport &amp; Cancer assiste des personnes atteintes d'un cancer, en leur proposant des activités sportives telles que la course à pied, le yoga, la natation et le karaté,. Une activité physique régulière réduirait la fatigue induite par la maladie et les traitements médicamenteux.
 </t>
         </is>
       </c>
